--- a/data/trans_orig/P71_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B124C1-8BD5-4E8D-82D3-BE0D87EF9561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{696698F5-EB1A-4914-AD13-2ADECDCE8C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F38DFE9-7A31-48AC-8B44-E7FD74A175F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C7D4F59-3B3E-4EBB-BCE8-59702548C429}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
   <si>
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,63%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>87,29%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1816 +140,1792 @@
     <t>24,6%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>86,27%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527DC166-5F97-4AD2-B60A-C67B727D0EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CBBC86-DECF-466C-922E-C242D60F2AC3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3603,10 +3579,10 @@
         <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3597,13 @@
         <v>597326</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>545</v>
@@ -3636,13 +3612,13 @@
         <v>570463</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1133</v>
@@ -3651,13 +3627,13 @@
         <v>1167788</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3701,13 @@
         <v>584141</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>885</v>
@@ -3740,13 +3716,13 @@
         <v>922333</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1459</v>
@@ -3755,13 +3731,13 @@
         <v>1506475</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3752,13 @@
         <v>2646688</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>2349</v>
@@ -3791,13 +3767,13 @@
         <v>2392636</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>4943</v>
@@ -3806,13 +3782,13 @@
         <v>5039323</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F5F97A-DB96-4918-AB78-ADC6B9401820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460DC564-E627-41B0-9BE8-7FB1AB7078C8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4014,39 +3990,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,39 +4035,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,39 +4080,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4129,13 @@
         <v>268621</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>270</v>
@@ -4168,13 +4144,13 @@
         <v>293353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>525</v>
@@ -4183,13 +4159,13 @@
         <v>561974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4180,13 @@
         <v>232891</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>209</v>
@@ -4219,13 +4195,13 @@
         <v>229303</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>422</v>
@@ -4234,13 +4210,13 @@
         <v>462195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4284,13 @@
         <v>51180</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -4323,13 +4299,13 @@
         <v>48419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -4338,13 +4314,13 @@
         <v>99599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4335,13 @@
         <v>271844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -4374,13 +4350,13 @@
         <v>291612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>539</v>
@@ -4389,13 +4365,13 @@
         <v>563455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4439,13 @@
         <v>211178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -4478,13 +4454,13 @@
         <v>212325</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>387</v>
@@ -4493,13 +4469,13 @@
         <v>423502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4490,13 @@
         <v>455412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>428</v>
@@ -4529,13 +4505,13 @@
         <v>457026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -4544,13 +4520,13 @@
         <v>912439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4594,13 @@
         <v>71179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4633,13 +4609,13 @@
         <v>79297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -4648,13 +4624,13 @@
         <v>150476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4645,13 @@
         <v>139480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4684,13 +4660,13 @@
         <v>140294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>266</v>
@@ -4699,13 +4675,13 @@
         <v>279774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4749,13 @@
         <v>44978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4788,13 +4764,13 @@
         <v>42469</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -4803,13 +4779,13 @@
         <v>87447</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4800,13 @@
         <v>228049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4839,13 +4815,13 @@
         <v>236506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
@@ -4854,13 +4830,13 @@
         <v>464555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4904,13 @@
         <v>141382</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -4943,13 +4919,13 @@
         <v>164260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -4958,13 +4934,13 @@
         <v>305642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4955,13 @@
         <v>520071</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>485</v>
@@ -4994,13 +4970,13 @@
         <v>529593</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>969</v>
@@ -5009,13 +4985,13 @@
         <v>1049664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5059,13 @@
         <v>255417</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -5098,13 +5074,13 @@
         <v>279806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>493</v>
@@ -5113,13 +5089,13 @@
         <v>535223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5110,13 @@
         <v>517463</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>497</v>
@@ -5149,13 +5125,13 @@
         <v>538459</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>970</v>
@@ -5164,13 +5140,13 @@
         <v>1055922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5214,13 @@
         <v>1043935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>1031</v>
@@ -5253,13 +5229,13 @@
         <v>1119928</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>2009</v>
@@ -5268,13 +5244,13 @@
         <v>2163863</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5265,13 @@
         <v>2365210</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>2253</v>
@@ -5304,13 +5280,13 @@
         <v>2422794</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>4468</v>
@@ -5319,13 +5295,13 @@
         <v>4788004</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5357,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5405,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7799EEAF-FC6F-4F98-9546-0566816EC549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E5934-4E70-45E3-8097-BB0DCF4C5D03}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5505,13 @@
         <v>108682</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>87</v>
@@ -5544,13 +5520,13 @@
         <v>89961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>185</v>
@@ -5559,13 +5535,13 @@
         <v>198644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5556,13 @@
         <v>184277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>188</v>
@@ -5595,13 +5571,13 @@
         <v>196749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>355</v>
@@ -5610,13 +5586,13 @@
         <v>381026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5660,13 @@
         <v>200673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -5699,13 +5675,13 @@
         <v>218366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>387</v>
@@ -5714,13 +5690,13 @@
         <v>419039</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5711,13 @@
         <v>297338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -5750,13 +5726,13 @@
         <v>302831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>566</v>
@@ -5765,13 +5741,13 @@
         <v>600169</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5815,13 @@
         <v>75977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -5854,13 +5830,13 @@
         <v>109069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -5869,13 +5845,13 @@
         <v>185046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5866,13 @@
         <v>236814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -5905,13 +5881,13 @@
         <v>224792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>474</v>
@@ -5920,13 +5896,13 @@
         <v>461606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5970,13 @@
         <v>111927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -6009,13 +5985,13 @@
         <v>149727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -6024,13 +6000,13 @@
         <v>261655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6021,13 @@
         <v>257000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -6060,13 +6036,13 @@
         <v>236632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -6075,13 +6051,13 @@
         <v>493631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6125,13 @@
         <v>128077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -6164,13 +6140,13 @@
         <v>144377</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -6179,13 +6155,13 @@
         <v>272454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6176,13 @@
         <v>81177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6215,13 +6191,13 @@
         <v>73079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -6230,13 +6206,13 @@
         <v>154256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6280,13 @@
         <v>48026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -6319,13 +6295,13 @@
         <v>50246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>92</v>
@@ -6334,13 +6310,13 @@
         <v>98272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6331,13 @@
         <v>212117</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -6370,13 +6346,13 @@
         <v>222869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
@@ -6385,13 +6361,13 @@
         <v>434986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6435,13 @@
         <v>200058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>216</v>
@@ -6474,13 +6450,13 @@
         <v>229653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -6489,13 +6465,13 @@
         <v>429711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6486,13 @@
         <v>455414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -6525,13 +6501,13 @@
         <v>460672</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>835</v>
@@ -6540,13 +6516,13 @@
         <v>916087</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6590,13 @@
         <v>254576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>246</v>
@@ -6629,13 +6605,13 @@
         <v>268162</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>493</v>
@@ -6644,13 +6620,13 @@
         <v>522738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6641,13 @@
         <v>515148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>502</v>
@@ -6680,13 +6656,13 @@
         <v>549607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>996</v>
@@ -6695,13 +6671,13 @@
         <v>1064755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6745,13 @@
         <v>1127997</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>1188</v>
@@ -6784,13 +6760,13 @@
         <v>1259561</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>2254</v>
@@ -6799,13 +6775,13 @@
         <v>2387558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6796,13 @@
         <v>2239285</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>44</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>2134</v>
@@ -6835,28 +6811,28 @@
         <v>2267231</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>4273</v>
       </c>
       <c r="N29" s="7">
-        <v>4506516</v>
+        <v>4506517</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,7 +6874,7 @@
         <v>6527</v>
       </c>
       <c r="N30" s="7">
-        <v>6894074</v>
+        <v>6894075</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6912,7 +6888,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6936,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0B4E25-F875-49BA-A06B-D1467D45EBA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA20AFC2-0328-4FD6-B423-B3FD3FDCBD28}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7060,13 +7036,13 @@
         <v>13622</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
@@ -7075,13 +7051,13 @@
         <v>23160</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
@@ -7090,13 +7066,13 @@
         <v>36782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7087,13 @@
         <v>245495</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -7126,13 +7102,13 @@
         <v>248243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
@@ -7141,13 +7117,13 @@
         <v>493738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,13 +7191,13 @@
         <v>65855</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -7230,13 +7206,13 @@
         <v>75556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -7245,13 +7221,13 @@
         <v>141412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7242,13 @@
         <v>446215</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>611</v>
@@ -7281,13 +7257,13 @@
         <v>477108</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -7296,13 +7272,13 @@
         <v>923322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7346,13 @@
         <v>47954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -7385,13 +7361,13 @@
         <v>71796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -7400,13 +7376,13 @@
         <v>119750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>527</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7397,13 @@
         <v>272257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -7436,13 +7412,13 @@
         <v>295901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="M11" s="7">
         <v>724</v>
@@ -7451,13 +7427,13 @@
         <v>568158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7501,13 @@
         <v>33628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -7540,13 +7516,13 @@
         <v>92105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -7555,13 +7531,13 @@
         <v>125733</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7552,13 @@
         <v>272279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>465</v>
@@ -7591,13 +7567,13 @@
         <v>313895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>712</v>
@@ -7606,13 +7582,13 @@
         <v>586174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,13 +7656,13 @@
         <v>10000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -7695,13 +7671,13 @@
         <v>14638</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -7710,13 +7686,13 @@
         <v>24638</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,13 +7707,13 @@
         <v>186161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>459</v>
@@ -7746,13 +7722,13 @@
         <v>242025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="M17" s="7">
         <v>718</v>
@@ -7761,13 +7737,13 @@
         <v>428186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,13 +7811,13 @@
         <v>32785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -7850,13 +7826,13 @@
         <v>41813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>561</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -7865,13 +7841,13 @@
         <v>74598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7862,13 @@
         <v>244438</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>385</v>
@@ -7901,13 +7877,13 @@
         <v>233309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
@@ -7916,13 +7892,13 @@
         <v>477747</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +7966,13 @@
         <v>77434</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>145</v>
@@ -8005,13 +7981,13 @@
         <v>97291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>220</v>
@@ -8020,13 +7996,13 @@
         <v>174725</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8017,13 @@
         <v>539348</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="H23" s="7">
         <v>802</v>
@@ -8056,13 +8032,13 @@
         <v>697038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="M23" s="7">
         <v>1315</v>
@@ -8071,13 +8047,13 @@
         <v>1236386</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8121,13 @@
         <v>161265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>247</v>
@@ -8160,13 +8136,13 @@
         <v>191706</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -8175,13 +8151,13 @@
         <v>352971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8172,13 @@
         <v>694910</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>810</v>
@@ -8211,13 +8187,13 @@
         <v>671220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="M26" s="7">
         <v>1412</v>
@@ -8226,13 +8202,13 @@
         <v>1366130</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8276,13 @@
         <v>442544</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>612</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="H28" s="7">
         <v>861</v>
@@ -8315,13 +8291,13 @@
         <v>608065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>615</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>1316</v>
@@ -8330,13 +8306,13 @@
         <v>1050609</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,13 +8327,13 @@
         <v>2901102</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>79</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>4447</v>
@@ -8366,28 +8342,28 @@
         <v>3178738</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>7333</v>
       </c>
       <c r="N29" s="7">
-        <v>6079839</v>
+        <v>6079840</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,7 +8405,7 @@
         <v>8649</v>
       </c>
       <c r="N30" s="7">
-        <v>7130448</v>
+        <v>7130449</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8443,7 +8419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P71_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696698F5-EB1A-4914-AD13-2ADECDCE8C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E803E516-9CFE-4CFE-AB28-398795215258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C7D4F59-3B3E-4EBB-BCE8-59702548C429}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6D98808A-9811-4ED9-BA2D-0B3783EDDCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="636">
   <si>
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
   </si>
   <si>
     <t>53,56%</t>
@@ -692,52 +743,52 @@
     <t>87,4%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>33,79%</t>
@@ -1448,484 +1499,454 @@
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>84,18%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CBBC86-DECF-466C-922E-C242D60F2AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83945696-B511-4746-973E-55B91B5A213B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2664,7 +2685,7 @@
         <v>344</v>
       </c>
       <c r="D8" s="7">
-        <v>365526</v>
+        <v>365527</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2715,7 +2736,7 @@
         <v>458</v>
       </c>
       <c r="D9" s="7">
-        <v>484804</v>
+        <v>484805</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3868,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460DC564-E627-41B0-9BE8-7FB1AB7078C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F87D6-FDD1-4B56-ACC2-27183655E56F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,43 +4007,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="D4" s="7">
+        <v>116228</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I4" s="7">
+        <v>113277</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="N4" s="7">
+        <v>229506</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,43 +4058,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="D5" s="7">
+        <v>178510</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="I5" s="7">
+        <v>171874</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>329</v>
+      </c>
+      <c r="N5" s="7">
+        <v>350383</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,43 +4109,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I6" s="7">
+        <v>285151</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>579889</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4168,13 @@
         <v>268621</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>270</v>
@@ -4144,13 +4183,13 @@
         <v>293353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>525</v>
@@ -4159,13 +4198,13 @@
         <v>561974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4219,13 @@
         <v>232891</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>209</v>
@@ -4195,13 +4234,13 @@
         <v>229303</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>422</v>
@@ -4210,13 +4249,13 @@
         <v>462195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4323,13 @@
         <v>51180</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -4299,13 +4338,13 @@
         <v>48419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -4314,13 +4353,13 @@
         <v>99599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,16 +4371,16 @@
         <v>269</v>
       </c>
       <c r="D11" s="7">
-        <v>271844</v>
+        <v>271843</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -4350,13 +4389,13 @@
         <v>291612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>539</v>
@@ -4365,13 +4404,13 @@
         <v>563455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,7 +4422,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>323024</v>
+        <v>323023</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4433,49 +4472,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7">
-        <v>211178</v>
+        <v>94949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="I13" s="7">
-        <v>212325</v>
+        <v>99047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="N13" s="7">
-        <v>423502</v>
+        <v>193997</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,49 +4523,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>430</v>
+        <v>257</v>
       </c>
       <c r="D14" s="7">
-        <v>455412</v>
+        <v>276903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="I14" s="7">
-        <v>457026</v>
+        <v>285153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>858</v>
+        <v>529</v>
       </c>
       <c r="N14" s="7">
-        <v>912439</v>
+        <v>562056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,10 +4574,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>624</v>
+        <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>666590</v>
+        <v>371852</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4550,10 +4589,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>367</v>
       </c>
       <c r="I15" s="7">
-        <v>669351</v>
+        <v>384200</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4565,10 +4604,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1245</v>
+        <v>709</v>
       </c>
       <c r="N15" s="7">
-        <v>1335941</v>
+        <v>756053</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4594,13 +4633,13 @@
         <v>71179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4609,13 +4648,13 @@
         <v>79297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -4624,13 +4663,13 @@
         <v>150476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4684,13 @@
         <v>139480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4660,13 +4699,13 @@
         <v>140294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>266</v>
@@ -4675,13 +4714,13 @@
         <v>279774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4788,13 @@
         <v>44978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4764,13 +4803,13 @@
         <v>42469</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -4779,10 +4818,10 @@
         <v>87447</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>164</v>
@@ -4800,13 +4839,13 @@
         <v>228049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4815,13 +4854,13 @@
         <v>236506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
@@ -4830,13 +4869,13 @@
         <v>464555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>171</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,10 +4946,10 @@
         <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -4919,13 +4958,13 @@
         <v>164260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -4934,13 +4973,13 @@
         <v>305642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,10 +4997,10 @@
         <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>485</v>
@@ -4970,13 +5009,13 @@
         <v>529593</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>969</v>
@@ -4985,13 +5024,13 @@
         <v>1049664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5098,13 @@
         <v>255417</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -5074,13 +5113,13 @@
         <v>279806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>493</v>
@@ -5089,13 +5128,13 @@
         <v>535223</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5149,13 @@
         <v>517463</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>497</v>
@@ -5125,13 +5164,13 @@
         <v>538459</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>970</v>
@@ -5140,13 +5179,13 @@
         <v>1055922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5253,13 @@
         <v>1043935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>1031</v>
@@ -5229,13 +5268,13 @@
         <v>1119928</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>2009</v>
@@ -5244,13 +5283,13 @@
         <v>2163863</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5304,13 @@
         <v>2365210</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>2253</v>
@@ -5280,13 +5319,13 @@
         <v>2422794</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>4468</v>
@@ -5295,10 +5334,10 @@
         <v>4788004</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>64</v>
@@ -5381,7 +5420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E5934-4E70-45E3-8097-BB0DCF4C5D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5981F4FA-0C51-4A4F-8548-D54C15F4EC7A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5544,13 @@
         <v>108682</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>87</v>
@@ -5520,13 +5559,13 @@
         <v>89961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>185</v>
@@ -5535,13 +5574,13 @@
         <v>198644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5595,13 @@
         <v>184277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>188</v>
@@ -5571,13 +5610,13 @@
         <v>196749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>355</v>
@@ -5586,13 +5625,13 @@
         <v>381026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5699,13 @@
         <v>200673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -5675,13 +5714,13 @@
         <v>218366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>387</v>
@@ -5690,13 +5729,13 @@
         <v>419039</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5750,13 @@
         <v>297338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -5726,13 +5765,13 @@
         <v>302831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>566</v>
@@ -5741,13 +5780,13 @@
         <v>600169</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5854,13 @@
         <v>75977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -5830,13 +5869,13 @@
         <v>109069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
@@ -5845,13 +5884,13 @@
         <v>185046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5905,13 @@
         <v>236814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -5881,13 +5920,13 @@
         <v>224792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>474</v>
@@ -5896,13 +5935,13 @@
         <v>461606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +6009,13 @@
         <v>111927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -5985,13 +6024,13 @@
         <v>149727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -6000,13 +6039,13 @@
         <v>261655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6060,13 @@
         <v>257000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -6036,13 +6075,13 @@
         <v>236632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -6051,13 +6090,13 @@
         <v>493631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6164,13 @@
         <v>128077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -6140,13 +6179,13 @@
         <v>144377</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -6155,13 +6194,13 @@
         <v>272454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6215,13 @@
         <v>81177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -6191,13 +6230,13 @@
         <v>73079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -6206,13 +6245,13 @@
         <v>154256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6319,13 @@
         <v>48026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -6295,13 +6334,13 @@
         <v>50246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>92</v>
@@ -6310,13 +6349,13 @@
         <v>98272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6370,13 @@
         <v>212117</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>216</v>
@@ -6346,13 +6385,13 @@
         <v>222869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>427</v>
@@ -6361,10 +6400,10 @@
         <v>434986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -6435,13 +6474,13 @@
         <v>200058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>216</v>
@@ -6450,13 +6489,13 @@
         <v>229653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -6465,13 +6504,13 @@
         <v>429711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6525,13 @@
         <v>455414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>429</v>
@@ -6501,13 +6540,13 @@
         <v>460672</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>835</v>
@@ -6516,13 +6555,13 @@
         <v>916087</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6629,13 @@
         <v>254576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>246</v>
@@ -6605,13 +6644,13 @@
         <v>268162</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>493</v>
@@ -6620,13 +6659,13 @@
         <v>522738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,16 +6677,16 @@
         <v>494</v>
       </c>
       <c r="D26" s="7">
-        <v>515148</v>
+        <v>515147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>502</v>
@@ -6656,13 +6695,13 @@
         <v>549607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>996</v>
@@ -6671,13 +6710,13 @@
         <v>1064755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,7 +6728,7 @@
         <v>741</v>
       </c>
       <c r="D27" s="7">
-        <v>769724</v>
+        <v>769723</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -6745,10 +6784,10 @@
         <v>1127997</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>35</v>
@@ -6760,13 +6799,13 @@
         <v>1259561</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>2254</v>
@@ -6775,13 +6814,13 @@
         <v>2387558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6835,13 @@
         <v>2239285</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>2134</v>
@@ -6811,13 +6850,13 @@
         <v>2267231</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>4273</v>
@@ -6826,13 +6865,13 @@
         <v>4506517</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,7 +6951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA20AFC2-0328-4FD6-B423-B3FD3FDCBD28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A094794C-383D-4093-8E26-60FF7E044DF1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6968,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7033,46 +7072,46 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>13622</v>
+        <v>15652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>23160</v>
+        <v>26835</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="M4" s="7">
         <v>71</v>
       </c>
       <c r="N4" s="7">
-        <v>36782</v>
+        <v>42487</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,46 +7123,46 @@
         <v>304</v>
       </c>
       <c r="D5" s="7">
-        <v>245495</v>
+        <v>294435</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
       </c>
       <c r="I5" s="7">
-        <v>248243</v>
+        <v>262800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
       </c>
       <c r="N5" s="7">
-        <v>493738</v>
+        <v>557235</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7174,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259117</v>
+        <v>310087</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7150,7 +7189,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7165,7 +7204,7 @@
         <v>868</v>
       </c>
       <c r="N6" s="7">
-        <v>530520</v>
+        <v>599722</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7188,46 +7227,46 @@
         <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>65855</v>
+        <v>65908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
       </c>
       <c r="I7" s="7">
-        <v>75556</v>
+        <v>70402</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
       </c>
       <c r="N7" s="7">
-        <v>141412</v>
+        <v>136310</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,46 +7278,46 @@
         <v>332</v>
       </c>
       <c r="D8" s="7">
-        <v>446215</v>
+        <v>444725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="H8" s="7">
         <v>611</v>
       </c>
       <c r="I8" s="7">
-        <v>477108</v>
+        <v>442811</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
       </c>
       <c r="N8" s="7">
-        <v>923322</v>
+        <v>887536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7329,7 @@
         <v>378</v>
       </c>
       <c r="D9" s="7">
-        <v>512070</v>
+        <v>510633</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7305,7 +7344,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552664</v>
+        <v>513213</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7320,7 +7359,7 @@
         <v>1092</v>
       </c>
       <c r="N9" s="7">
-        <v>1064734</v>
+        <v>1023846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7343,46 +7382,46 @@
         <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>47954</v>
+        <v>47266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>71796</v>
+        <v>67289</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
       </c>
       <c r="N10" s="7">
-        <v>119750</v>
+        <v>114555</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,46 +7433,46 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>272257</v>
+        <v>266797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
       </c>
       <c r="I11" s="7">
-        <v>295901</v>
+        <v>276605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="M11" s="7">
         <v>724</v>
       </c>
       <c r="N11" s="7">
-        <v>568158</v>
+        <v>543402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>538</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,7 +7484,7 @@
         <v>357</v>
       </c>
       <c r="D12" s="7">
-        <v>320211</v>
+        <v>314063</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7460,7 +7499,7 @@
         <v>528</v>
       </c>
       <c r="I12" s="7">
-        <v>367697</v>
+        <v>343894</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7475,7 +7514,7 @@
         <v>885</v>
       </c>
       <c r="N12" s="7">
-        <v>687908</v>
+        <v>657957</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7498,46 +7537,46 @@
         <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>33628</v>
+        <v>31363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
       </c>
       <c r="I13" s="7">
-        <v>92105</v>
+        <v>141495</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
       </c>
       <c r="N13" s="7">
-        <v>125733</v>
+        <v>172859</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,46 +7588,46 @@
         <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>272279</v>
+        <v>262664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>530</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="H14" s="7">
         <v>465</v>
       </c>
       <c r="I14" s="7">
-        <v>313895</v>
+        <v>289520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="M14" s="7">
         <v>712</v>
       </c>
       <c r="N14" s="7">
-        <v>586174</v>
+        <v>552183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,7 +7639,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="7">
-        <v>305907</v>
+        <v>294027</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7615,7 +7654,7 @@
         <v>574</v>
       </c>
       <c r="I15" s="7">
-        <v>406000</v>
+        <v>431015</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7630,7 +7669,7 @@
         <v>854</v>
       </c>
       <c r="N15" s="7">
-        <v>711907</v>
+        <v>725042</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7653,46 +7692,46 @@
         <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>10000</v>
+        <v>9061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>14638</v>
+        <v>12941</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>24638</v>
+        <v>22002</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,46 +7743,46 @@
         <v>259</v>
       </c>
       <c r="D17" s="7">
-        <v>186161</v>
+        <v>169147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>459</v>
       </c>
       <c r="I17" s="7">
-        <v>242025</v>
+        <v>243372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="M17" s="7">
         <v>718</v>
       </c>
       <c r="N17" s="7">
-        <v>428186</v>
+        <v>412519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,7 +7794,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196161</v>
+        <v>178208</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7770,7 +7809,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>256663</v>
+        <v>256313</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7785,7 +7824,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>452824</v>
+        <v>434521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7808,46 +7847,46 @@
         <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>32785</v>
+        <v>32092</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>41813</v>
+        <v>39041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
       </c>
       <c r="N19" s="7">
-        <v>74598</v>
+        <v>71133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,46 +7898,46 @@
         <v>327</v>
       </c>
       <c r="D20" s="7">
-        <v>244438</v>
+        <v>237544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
         <v>385</v>
       </c>
       <c r="I20" s="7">
-        <v>233309</v>
+        <v>217553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
       </c>
       <c r="N20" s="7">
-        <v>477747</v>
+        <v>455097</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,7 +7949,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7925,7 +7964,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>275122</v>
+        <v>256594</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7940,7 +7979,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552345</v>
+        <v>526230</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7963,46 +8002,46 @@
         <v>75</v>
       </c>
       <c r="D22" s="7">
-        <v>77434</v>
+        <v>75852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>145</v>
       </c>
       <c r="I22" s="7">
-        <v>97291</v>
+        <v>89830</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>522</v>
       </c>
       <c r="M22" s="7">
         <v>220</v>
       </c>
       <c r="N22" s="7">
-        <v>174725</v>
+        <v>165682</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,46 +8053,46 @@
         <v>513</v>
       </c>
       <c r="D23" s="7">
-        <v>539348</v>
+        <v>537455</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H23" s="7">
         <v>802</v>
       </c>
       <c r="I23" s="7">
-        <v>697038</v>
+        <v>750182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="M23" s="7">
         <v>1315</v>
       </c>
       <c r="N23" s="7">
-        <v>1236386</v>
+        <v>1287637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,7 +8104,7 @@
         <v>588</v>
       </c>
       <c r="D24" s="7">
-        <v>616782</v>
+        <v>613307</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8080,7 +8119,7 @@
         <v>947</v>
       </c>
       <c r="I24" s="7">
-        <v>794329</v>
+        <v>840012</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8095,7 +8134,7 @@
         <v>1535</v>
       </c>
       <c r="N24" s="7">
-        <v>1411111</v>
+        <v>1453319</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8118,46 +8157,46 @@
         <v>157</v>
       </c>
       <c r="D25" s="7">
-        <v>161265</v>
+        <v>137204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>247</v>
       </c>
       <c r="I25" s="7">
-        <v>191706</v>
+        <v>159735</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
       </c>
       <c r="N25" s="7">
-        <v>352971</v>
+        <v>296939</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,46 +8208,46 @@
         <v>602</v>
       </c>
       <c r="D26" s="7">
-        <v>694910</v>
+        <v>788737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>810</v>
       </c>
       <c r="I26" s="7">
-        <v>671220</v>
+        <v>553312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="M26" s="7">
         <v>1412</v>
       </c>
       <c r="N26" s="7">
-        <v>1366130</v>
+        <v>1342049</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,7 +8259,7 @@
         <v>759</v>
       </c>
       <c r="D27" s="7">
-        <v>856175</v>
+        <v>925941</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8235,7 +8274,7 @@
         <v>1057</v>
       </c>
       <c r="I27" s="7">
-        <v>862926</v>
+        <v>713047</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8250,7 +8289,7 @@
         <v>1816</v>
       </c>
       <c r="N27" s="7">
-        <v>1719101</v>
+        <v>1638988</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8273,46 +8312,46 @@
         <v>455</v>
       </c>
       <c r="D28" s="7">
-        <v>442544</v>
+        <v>414398</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="H28" s="7">
         <v>861</v>
       </c>
       <c r="I28" s="7">
-        <v>608065</v>
+        <v>607568</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="M28" s="7">
         <v>1316</v>
       </c>
       <c r="N28" s="7">
-        <v>1050609</v>
+        <v>1021966</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,46 +8363,46 @@
         <v>2886</v>
       </c>
       <c r="D29" s="7">
-        <v>2901102</v>
+        <v>3001505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="H29" s="7">
         <v>4447</v>
       </c>
       <c r="I29" s="7">
-        <v>3178738</v>
+        <v>3036154</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="M29" s="7">
         <v>7333</v>
       </c>
       <c r="N29" s="7">
-        <v>6079840</v>
+        <v>6037659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,7 +8414,7 @@
         <v>3341</v>
       </c>
       <c r="D30" s="7">
-        <v>3343646</v>
+        <v>3415903</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8390,7 +8429,7 @@
         <v>5308</v>
       </c>
       <c r="I30" s="7">
-        <v>3786803</v>
+        <v>3643722</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8405,7 +8444,7 @@
         <v>8649</v>
       </c>
       <c r="N30" s="7">
-        <v>7130449</v>
+        <v>7059625</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
